--- a/Tbill_Returns_2024.xlsx
+++ b/Tbill_Returns_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
   <si>
     <t>Press Release ID</t>
   </si>
@@ -76,6 +76,15 @@
     <t>02 May, 2024</t>
   </si>
   <si>
+    <t>08 May, 2024</t>
+  </si>
+  <si>
+    <t>15 May, 2024</t>
+  </si>
+  <si>
+    <t>22 May, 2024</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 6.9378%</t>
   </si>
   <si>
@@ -121,6 +130,15 @@
     <t xml:space="preserve"> 6.9972%</t>
   </si>
   <si>
+    <t xml:space="preserve"> 6.9997%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.9885%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.8536%</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 7.1498%</t>
   </si>
   <si>
@@ -166,6 +184,15 @@
     <t xml:space="preserve"> 7.0393%</t>
   </si>
   <si>
+    <t xml:space="preserve"> 7.0802%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.0847%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.0140%</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 7.1257%</t>
   </si>
   <si>
@@ -209,6 +236,12 @@
   </si>
   <si>
     <t xml:space="preserve"> 7.0797%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.0890%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.0218%</t>
   </si>
 </sst>
 </file>
@@ -566,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -597,13 +630,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -614,13 +647,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -631,13 +664,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -648,13 +681,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -662,13 +695,13 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,13 +709,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -690,13 +723,13 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -704,13 +737,13 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -718,13 +751,13 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -732,13 +765,13 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -746,13 +779,13 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -760,13 +793,13 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -774,13 +807,13 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -788,13 +821,13 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -802,13 +835,55 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Tbill_Returns_2024.xlsx
+++ b/Tbill_Returns_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="122">
   <si>
     <t>Press Release ID</t>
   </si>
@@ -85,6 +85,42 @@
     <t>22 May, 2024</t>
   </si>
   <si>
+    <t>29 May, 2024</t>
+  </si>
+  <si>
+    <t>05 Jun, 2024</t>
+  </si>
+  <si>
+    <t>12 Jun, 2024</t>
+  </si>
+  <si>
+    <t>19 Jun, 2024</t>
+  </si>
+  <si>
+    <t>26 Jun, 2024</t>
+  </si>
+  <si>
+    <t>03 Jul, 2024</t>
+  </si>
+  <si>
+    <t>10 Jul, 2024</t>
+  </si>
+  <si>
+    <t>18 Jul, 2024</t>
+  </si>
+  <si>
+    <t>31 Jul, 2024</t>
+  </si>
+  <si>
+    <t>07 Aug, 2024</t>
+  </si>
+  <si>
+    <t>14 Aug, 2024</t>
+  </si>
+  <si>
+    <t>21 Aug, 2024</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 6.9378%</t>
   </si>
   <si>
@@ -139,6 +175,42 @@
     <t xml:space="preserve"> 6.8536%</t>
   </si>
   <si>
+    <t>6.8478%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.8619%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.8370%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.8150%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.8034%</t>
+  </si>
+  <si>
+    <t>6.7810%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.7578%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.7399%</t>
+  </si>
+  <si>
+    <t>6.6736%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.6351%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.6152%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.6388%</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 7.1498%</t>
   </si>
   <si>
@@ -193,6 +265,42 @@
     <t xml:space="preserve"> 7.0140%</t>
   </si>
   <si>
+    <t>7.0080%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.0189%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.9925%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.9601%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.9191%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.9000%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.8699%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.8451%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.7885%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.7284%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.7282%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.7239%</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 7.1257%</t>
   </si>
   <si>
@@ -242,6 +350,36 @@
   </si>
   <si>
     <t xml:space="preserve"> 7.0218%</t>
+  </si>
+  <si>
+    <t>7.0364%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.0347%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.0111%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.9800%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.9498%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.9194%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.8740%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.7985%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.7300%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.7240%</t>
   </si>
 </sst>
 </file>
@@ -599,7 +737,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,13 +768,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -647,13 +785,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -664,13 +802,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -681,13 +819,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -695,13 +833,13 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -709,13 +847,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -723,13 +861,13 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -737,13 +875,13 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -751,13 +889,13 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -765,13 +903,13 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -779,13 +917,13 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -793,13 +931,13 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -807,13 +945,13 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -821,13 +959,13 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -835,13 +973,13 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -849,13 +987,13 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="2:5">
@@ -863,13 +1001,13 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="2:5">
@@ -877,13 +1015,181 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
         <v>58</v>
       </c>
-      <c r="E19" t="s">
-        <v>75</v>
+      <c r="D25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Tbill_Returns_2024.xlsx
+++ b/Tbill_Returns_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="150">
   <si>
     <t>Press Release ID</t>
   </si>
@@ -121,6 +121,27 @@
     <t>21 Aug, 2024</t>
   </si>
   <si>
+    <t>28 Aug, 2024</t>
+  </si>
+  <si>
+    <t>04 Sep, 2024</t>
+  </si>
+  <si>
+    <t>11 Sep, 2024</t>
+  </si>
+  <si>
+    <t>03 Oct, 2024</t>
+  </si>
+  <si>
+    <t>09 Oct, 2024</t>
+  </si>
+  <si>
+    <t>16 Oct, 2024</t>
+  </si>
+  <si>
+    <t>13 Nov, 2024</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 6.9378%</t>
   </si>
   <si>
@@ -211,6 +232,27 @@
     <t xml:space="preserve"> 6.6388%</t>
   </si>
   <si>
+    <t>6.6342%</t>
+  </si>
+  <si>
+    <t>6.6301%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.6462%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.4739%</t>
+  </si>
+  <si>
+    <t>6.4300%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.4515%</t>
+  </si>
+  <si>
+    <t>6.4395%</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 7.1498%</t>
   </si>
   <si>
@@ -301,6 +343,27 @@
     <t xml:space="preserve"> 6.7239%</t>
   </si>
   <si>
+    <t xml:space="preserve"> 6.7210%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.7261%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.7222%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.5630%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.5424%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.5493%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.6188%</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 7.1257%</t>
   </si>
   <si>
@@ -380,6 +443,27 @@
   </si>
   <si>
     <t xml:space="preserve"> 6.7240%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.7175%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.7153%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.7037%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.5487%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.5283%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.5438%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.6145%</t>
   </si>
 </sst>
 </file>
@@ -737,7 +821,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -768,13 +852,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -785,13 +869,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -802,13 +886,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -819,13 +903,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -833,13 +917,13 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -847,13 +931,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -861,13 +945,13 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -875,13 +959,13 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -889,13 +973,13 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -903,13 +987,13 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -917,13 +1001,13 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -931,13 +1015,13 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -945,13 +1029,13 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -959,13 +1043,13 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -973,13 +1057,13 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -987,13 +1071,13 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E17" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="2:5">
@@ -1001,13 +1085,13 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="2:5">
@@ -1015,13 +1099,13 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="2:5">
@@ -1029,13 +1113,13 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="2:5">
@@ -1043,13 +1127,13 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="E21" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="2:5">
@@ -1057,13 +1141,13 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="E22" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="2:5">
@@ -1071,13 +1155,13 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E23" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="2:5">
@@ -1085,13 +1169,13 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="2:5">
@@ -1099,13 +1183,13 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="E25" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="2:5">
@@ -1113,13 +1197,13 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="E26" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="2:5">
@@ -1127,13 +1211,13 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="E27" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="2:5">
@@ -1141,13 +1225,13 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="E28" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="2:5">
@@ -1155,13 +1239,13 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D29" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E29" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="2:5">
@@ -1169,13 +1253,13 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="E30" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="2:5">
@@ -1183,13 +1267,111 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="E31" t="s">
-        <v>92</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
